--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CFA\Applied series\Top down\Probability of rate hike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B719FB23-23C2-437C-82EB-DD703BAD6429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B1672-AD60-4EE2-8753-1C4BDE0E7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
@@ -19,28 +19,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model_example_using2anchor!$O$44</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model_example_using2anchor!$O$45</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Model_example_using2anchor!$O$44</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Model_example_using2anchor!$O$45</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Model_example_using2anchor!$O$44</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Model_example_using2anchor!$O$45</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Model_example_using2anchor!$O$44</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Model_example_using2anchor!$O$45</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model_example_using2anchor!$O$44</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model_example_using2anchor!$O$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model_example_using2anchor!$O$45</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model_example_using2anchor!$O$45:$Q$45</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model_example_using2anchor!$O$46</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model_example_using2anchor!$O$46:$Q$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -350,10 +330,52 @@
     </r>
   </si>
   <si>
-    <t>Q2 (No MoC's meeting left on 22/5/2025)</t>
-  </si>
-  <si>
     <t>7. Calculate the # of 25bp hikes based off of Quarterly Change (Col. H):</t>
+  </si>
+  <si>
+    <t>As there will be BoE MoC's meeting in the following quarter, we need to take into account of the over or underestimation of the probability of rate cut/hike as a result of the presence of the MoC meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This means, if (the last of) the MoC within the contract period announces a rate hike, the implied SONIA(End)T&lt;SONIA(Avg)T-1. </t>
+  </si>
+  <si>
+    <t>Understanding the CME Group FedWatch Tool Methodology - CME Group</t>
+  </si>
+  <si>
+    <t>Three Month SONIA Index Futures Pricing</t>
+  </si>
+  <si>
+    <t>We can take this into consideration and caveat, or assuming that SONIA(End)T = SONIA(Avg)T-1, where T is the Quarter the Future Contract covers over which we are interested in the MOC's probability of rate hike/cut.# (i.e. T-1 is the anchor period)</t>
+  </si>
+  <si>
+    <t>Future Contract</t>
+  </si>
+  <si>
+    <t>6. Calculate the Quartly Change for the quarter with MOC meetings (Col. G).</t>
+  </si>
+  <si>
+    <t>Quarterly Change</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q4 (Anchor 3-month contract)</t>
+  </si>
+  <si>
+    <t>Cut Size</t>
+  </si>
+  <si>
+    <t>25 bp</t>
+  </si>
+  <si>
+    <t>50 bp</t>
+  </si>
+  <si>
+    <t>75 bp</t>
+  </si>
+  <si>
+    <t>Using Q4 as an Anchor month</t>
   </si>
   <si>
     <r>
@@ -379,7 +401,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>for the next 2 MOC</t>
+      <t>for the next 2 MPC</t>
     </r>
     <r>
       <rPr>
@@ -393,52 +415,10 @@
     </r>
   </si>
   <si>
-    <t>As there will be BoE MoC's meeting in the following quarter, we need to take into account of the over or underestimation of the probability of rate cut/hike as a result of the presence of the MoC meeting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This means, if (the last of) the MoC within the contract period announces a rate hike, the implied SONIA(End)T&lt;SONIA(Avg)T-1. </t>
-  </si>
-  <si>
-    <t>Understanding the CME Group FedWatch Tool Methodology - CME Group</t>
-  </si>
-  <si>
-    <t>Three Month SONIA Index Futures Pricing</t>
-  </si>
-  <si>
-    <t>We can take this into consideration and caveat, or assuming that SONIA(End)T = SONIA(Avg)T-1, where T is the Quarter the Future Contract covers over which we are interested in the MOC's probability of rate hike/cut.# (i.e. T-1 is the anchor period)</t>
-  </si>
-  <si>
-    <t>Future Contract</t>
-  </si>
-  <si>
-    <t>6. Calculate the Quartly Change for the quarter with MOC meetings (Col. G).</t>
-  </si>
-  <si>
-    <t>Quarterly Change</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>2. Find the nearest upcoming month without an MOC meeting.</t>
-  </si>
-  <si>
-    <t>Q4 (Anchor 3-month contract)</t>
-  </si>
-  <si>
-    <t>Cut Size</t>
-  </si>
-  <si>
-    <t>25 bp</t>
-  </si>
-  <si>
-    <t>50 bp</t>
-  </si>
-  <si>
-    <t>75 bp</t>
-  </si>
-  <si>
-    <t>Using Q4 as an Anchor month</t>
+    <t>2. Find the nearest upcoming month without an MPC meeting.</t>
+  </si>
+  <si>
+    <t>Q2 (No MPC's meeting left on 22/5/2025)</t>
   </si>
 </sst>
 </file>
@@ -745,7 +725,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,22 +813,11 @@
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -858,6 +827,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -910,12 +888,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.14</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.15</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -974,7 +952,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F172C1B1-4B23-48BD-99D9-58E38182A4A3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>25 bp</cx:v>
             </cx:txData>
           </cx:tx>
@@ -987,7 +965,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4DE4518D-7DB3-4762-A228-5F22CE802E6B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>50 bp</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1572,16 +1550,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2179543</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>124386</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1109382</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>358587</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100855</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1617,8 +1595,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3625102" y="1625974"/>
-              <a:ext cx="5496485" cy="3685616"/>
+              <a:off x="14298706" y="1008529"/>
+              <a:ext cx="4392705" cy="2958354"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1946,7 +1924,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1974,7 +1952,7 @@
       </c>
       <c r="C1" s="33">
         <f ca="1">TODAY()</f>
-        <v>45799</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2094,7 +2072,7 @@
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <f>C5</f>
@@ -2127,12 +2105,12 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="J13" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
+      <c r="J13" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
@@ -2149,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>41</v>
@@ -2187,7 +2165,7 @@
         <f>C16/(C16+C18)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="62">
         <f>(E17-(D18*E18))/D16</f>
         <v>96.091249999999988</v>
       </c>
@@ -2259,7 +2237,7 @@
         <f>E19</f>
         <v>95.63</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="64">
         <f t="shared" si="0"/>
         <v>4.3700000000000045</v>
       </c>
@@ -2279,7 +2257,7 @@
         <f>C9</f>
         <v>95.63</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="64">
         <f t="shared" si="0"/>
         <v>4.3700000000000045</v>
       </c>
@@ -2305,7 +2283,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="N22" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>27</v>
@@ -2356,7 +2334,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4">
         <f>E5</f>
@@ -2388,14 +2366,14 @@
     </row>
     <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="61"/>
+        <v>66</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="28">
         <v>45901</v>
       </c>
@@ -2422,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>41</v>
@@ -2461,19 +2439,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="21">
         <f>C27</f>
         <v>96.025000000000006</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="64">
         <f t="shared" ref="F32" si="1">100-E32</f>
         <v>3.9749999999999943</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
       <c r="M32" s="9"/>
       <c r="N32" s="28">
         <v>45717</v>
@@ -2498,7 +2476,7 @@
         <f>E32</f>
         <v>96.025000000000006</v>
       </c>
-      <c r="F33" s="69">
+      <c r="F33" s="64">
         <f>100-E33</f>
         <v>3.9749999999999943</v>
       </c>
@@ -2514,8 +2492,8 @@
         <f>ABS(TRUNC(H33,0))</f>
         <v>1</v>
       </c>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="9"/>
       <c r="N33" s="28">
         <v>45809</v>
@@ -2574,7 +2552,7 @@
       <c r="B35" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="60">
         <f>G11</f>
         <v>50</v>
       </c>
@@ -2582,11 +2560,11 @@
         <f>C35/(C35+C33)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="63">
         <f>((E34)-(D33*E33))/D35</f>
         <v>95.682999999999993</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="61">
         <f>100-E35</f>
         <v>4.3170000000000073</v>
       </c>
@@ -2608,8 +2586,8 @@
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -2619,7 +2597,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
@@ -2642,17 +2620,17 @@
     </row>
     <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="O43" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
+        <v>58</v>
+      </c>
+      <c r="O43" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -2660,14 +2638,14 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
-      <c r="O44" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" s="72">
+      <c r="O44" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="67">
         <f>J17</f>
         <v>0.15500000000002978</v>
       </c>
-      <c r="Q44" s="72">
+      <c r="Q44" s="67">
         <f>J34</f>
         <v>0.63199999999994816</v>
       </c>
@@ -2676,14 +2654,14 @@
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="P45" s="72">
+      <c r="O45" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" s="67">
         <f>K34</f>
         <v>0.36800000000005184</v>
       </c>
-      <c r="Q45" s="72">
+      <c r="Q45" s="67">
         <f>K17</f>
         <v>0.84499999999997022</v>
       </c>
@@ -2700,14 +2678,14 @@
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
-      <c r="O46" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="P46" s="72">
+      <c r="O46" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="67">
         <f>L34</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="72">
+      <c r="Q46" s="67">
         <f>L17</f>
         <v>0</v>
       </c>
@@ -2815,12 +2793,12 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2860,17 +2838,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B1672-AD60-4EE2-8753-1C4BDE0E7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E22E10-0083-4E26-8046-9EF326AB1A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Q2 (No MPC's meeting left on 22/5/2025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1595,8 +1598,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14298706" y="1008529"/>
-              <a:ext cx="4392705" cy="2958354"/>
+              <a:off x="14330082" y="1010210"/>
+              <a:ext cx="4392145" cy="2970120"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1923,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2611,6 +2614,9 @@
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>47</v>
+      </c>
+      <c r="M41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E22E10-0083-4E26-8046-9EF326AB1A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC327B-A764-4AC0-AD81-D76E941785EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
@@ -944,7 +944,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
               </a:rPr>
-              <a:t> probability from Jun - Sep 2025 as of 22 May</a:t>
+              <a:t> probability from Jun - Sep 2025 as of 23 May</a:t>
             </a:r>
           </a:p>
         </cx:rich>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1963,8 +1963,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="32">
-        <f>DATEVALUE("22/05/2025")</f>
-        <v>45799</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2044,10 +2043,10 @@
         <v>95.63</v>
       </c>
       <c r="D5" s="45">
-        <v>95.834999999999994</v>
+        <v>95.82</v>
       </c>
       <c r="E5" s="21">
-        <v>96.025000000000006</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4">
         <v>96.22</v>
@@ -2170,19 +2169,19 @@
       </c>
       <c r="E16" s="62">
         <f>(E17-(D18*E18))/D16</f>
-        <v>96.091249999999988</v>
+        <v>96.05749999999999</v>
       </c>
       <c r="F16" s="4">
         <f>100-E16</f>
-        <v>3.9087500000000119</v>
+        <v>3.9425000000000097</v>
       </c>
       <c r="G16" s="4">
         <f>F16-F18</f>
-        <v>-0.46124999999999261</v>
+        <v>-0.42749999999999488</v>
       </c>
       <c r="H16" s="39">
         <f>G16/25*100</f>
-        <v>-1.8449999999999702</v>
+        <v>-1.7099999999999795</v>
       </c>
       <c r="I16" s="24">
         <f>ABS(TRUNC(H16,0))</f>
@@ -2198,23 +2197,23 @@
       </c>
       <c r="E17" s="21">
         <f>D5</f>
-        <v>95.834999999999994</v>
+        <v>95.82</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ref="F17:F19" si="0">100-E17</f>
-        <v>4.1650000000000063</v>
+        <v>4.1800000000000068</v>
       </c>
       <c r="I17" s="25">
         <f>MOD(ABS(H16),1)</f>
-        <v>0.84499999999997022</v>
+        <v>0.70999999999997954</v>
       </c>
       <c r="J17" s="56">
         <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
-        <v>0.15500000000002978</v>
+        <v>0.29000000000002046</v>
       </c>
       <c r="K17" s="56">
         <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
-        <v>0.84499999999997022</v>
+        <v>0.70999999999997954</v>
       </c>
       <c r="L17" s="56">
         <f>IF(J17 + K17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
@@ -2341,11 +2340,11 @@
       </c>
       <c r="C27" s="4">
         <f>E5</f>
-        <v>96.025000000000006</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4">
         <f>100-C27</f>
-        <v>3.9749999999999943</v>
+        <v>4</v>
       </c>
       <c r="G27" s="34"/>
       <c r="N27" s="28">
@@ -2446,11 +2445,11 @@
       </c>
       <c r="E32" s="21">
         <f>C27</f>
-        <v>96.025000000000006</v>
+        <v>96</v>
       </c>
       <c r="F32" s="64">
         <f t="shared" ref="F32" si="1">100-E32</f>
-        <v>3.9749999999999943</v>
+        <v>4</v>
       </c>
       <c r="I32" s="9"/>
       <c r="K32" s="59"/>
@@ -2477,19 +2476,19 @@
       </c>
       <c r="E33" s="4">
         <f>E32</f>
-        <v>96.025000000000006</v>
+        <v>96</v>
       </c>
       <c r="F33" s="64">
         <f>100-E33</f>
-        <v>3.9749999999999943</v>
+        <v>4</v>
       </c>
       <c r="G33" s="4">
         <f>F33-F35</f>
-        <v>-0.34200000000001296</v>
+        <v>-0.32400000000001228</v>
       </c>
       <c r="H33" s="39">
         <f>G33/25*100</f>
-        <v>-1.3680000000000518</v>
+        <v>-1.2960000000000491</v>
       </c>
       <c r="I33" s="24">
         <f>ABS(TRUNC(H33,0))</f>
@@ -2515,23 +2514,23 @@
       </c>
       <c r="E34" s="21">
         <f>D5</f>
-        <v>95.834999999999994</v>
+        <v>95.82</v>
       </c>
       <c r="F34" s="4">
         <f>100-E34</f>
-        <v>4.1650000000000063</v>
+        <v>4.1800000000000068</v>
       </c>
       <c r="I34" s="25">
         <f>MOD(ABS(H33),1)</f>
-        <v>0.36800000000005184</v>
+        <v>0.29600000000004911</v>
       </c>
       <c r="J34" s="56">
         <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
-        <v>0.63199999999994816</v>
+        <v>0.70399999999995089</v>
       </c>
       <c r="K34" s="56">
         <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
-        <v>0.36800000000005184</v>
+        <v>0.29600000000004911</v>
       </c>
       <c r="L34" s="56">
         <f>IF(J34 + K34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
@@ -2565,11 +2564,11 @@
       </c>
       <c r="E35" s="63">
         <f>((E34)-(D33*E33))/D35</f>
-        <v>95.682999999999993</v>
+        <v>95.675999999999988</v>
       </c>
       <c r="F35" s="61">
         <f>100-E35</f>
-        <v>4.3170000000000073</v>
+        <v>4.3240000000000123</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2649,11 +2648,11 @@
       </c>
       <c r="P44" s="67">
         <f>J17</f>
-        <v>0.15500000000002978</v>
+        <v>0.29000000000002046</v>
       </c>
       <c r="Q44" s="67">
         <f>J34</f>
-        <v>0.63199999999994816</v>
+        <v>0.70399999999995089</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
@@ -2665,11 +2664,11 @@
       </c>
       <c r="P45" s="67">
         <f>K34</f>
-        <v>0.36800000000005184</v>
+        <v>0.29600000000004911</v>
       </c>
       <c r="Q45" s="67">
         <f>K17</f>
-        <v>0.84499999999997022</v>
+        <v>0.70999999999997954</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC327B-A764-4AC0-AD81-D76E941785EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E6EC4-3C53-4CAB-B546-A55A1B1AA235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
     <sheet name="Note_using the next Q as anchor" sheetId="4" r:id="rId2"/>
+    <sheet name="Model_example_using2anchor (2)" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model_example_using2anchor!$O$44</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model_example_using2anchor!$O$45</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Model_example_using2anchor (2)'!$O$44</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Model_example_using2anchor (2)'!$O$45</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Model_example_using2anchor (2)'!$P$44:$Q$44</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Model_example_using2anchor (2)'!$P$45:$Q$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -422,6 +427,64 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>From: (Avg. SONIA) = (% days before meet.)*(SONIA Start)+(% days after meet)*(SONIA End)</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M = # of days </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the LAST MPC until the delivery date of the 3-months SONIA contract</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N = # of days </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the LAST MPC that the 3-months SONIA contract cover </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -846,7 +909,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -923,12 +1006,9 @@
               <a:t>Range of rate </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204"/>
               </a:rPr>
@@ -994,7 +1074,152 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+              </a:rPr>
+              <a:t>Range of rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+              </a:rPr>
+              <a:t>cut</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+              </a:rPr>
+              <a:t> probability from Jun - Sep 2025 as of 23 May</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F172C1B1-4B23-48BD-99D9-58E38182A4A3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>25 bp</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4DE4518D-7DB3-4762-A228-5F22CE802E6B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>50 bp</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1549,6 +1774,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1572,6 +2312,89 @@
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786E2D30-98BC-0F37-4682-8276F3EBA5FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14330082" y="1010210"/>
+              <a:ext cx="4392145" cy="2970120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1109382</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28EB0B9-8D68-419A-AD8A-0BC8D72B307A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1927,7 +2750,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1962,8 +2785,12 @@
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="32">
-        <v>96</v>
+      <c r="C2" s="33">
+        <f>DATEVALUE("23/05/2025")</f>
+        <v>45800</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2040,13 +2867,13 @@
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="45">
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="D5" s="45">
-        <v>95.82</v>
+        <v>95.83</v>
       </c>
       <c r="E5" s="21">
-        <v>96</v>
+        <v>96.03</v>
       </c>
       <c r="F5" s="4">
         <v>96.22</v>
@@ -2069,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2078,17 +2905,28 @@
       </c>
       <c r="C9" s="4">
         <f>C5</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="D9" s="4">
         <f>100-C9</f>
-        <v>4.3700000000000045</v>
+        <v>4.3730000000000047</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4">
+        <f>D5</f>
+        <v>95.83</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D11" si="0">100-C10</f>
+        <v>4.1700000000000017</v>
+      </c>
       <c r="F10" t="s">
         <v>36</v>
       </c>
@@ -2098,6 +2936,17 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4">
+        <f>E5</f>
+        <v>96.03</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9699999999999989</v>
+      </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
@@ -2169,19 +3018,19 @@
       </c>
       <c r="E16" s="62">
         <f>(E17-(D18*E18))/D16</f>
-        <v>96.05749999999999</v>
+        <v>96.083750000000009</v>
       </c>
       <c r="F16" s="4">
         <f>100-E16</f>
-        <v>3.9425000000000097</v>
+        <v>3.9162499999999909</v>
       </c>
       <c r="G16" s="4">
         <f>F16-F18</f>
-        <v>-0.42749999999999488</v>
+        <v>-0.45675000000001376</v>
       </c>
       <c r="H16" s="39">
         <f>G16/25*100</f>
-        <v>-1.7099999999999795</v>
+        <v>-1.827000000000055</v>
       </c>
       <c r="I16" s="24">
         <f>ABS(TRUNC(H16,0))</f>
@@ -2197,23 +3046,23 @@
       </c>
       <c r="E17" s="21">
         <f>D5</f>
-        <v>95.82</v>
+        <v>95.83</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" ref="F17:F19" si="0">100-E17</f>
-        <v>4.1800000000000068</v>
+        <f t="shared" ref="F17:F19" si="1">100-E17</f>
+        <v>4.1700000000000017</v>
       </c>
       <c r="I17" s="25">
         <f>MOD(ABS(H16),1)</f>
-        <v>0.70999999999997954</v>
+        <v>0.82700000000005502</v>
       </c>
       <c r="J17" s="56">
         <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
-        <v>0.29000000000002046</v>
+        <v>0.17299999999994498</v>
       </c>
       <c r="K17" s="56">
         <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
-        <v>0.70999999999997954</v>
+        <v>0.82700000000005502</v>
       </c>
       <c r="L17" s="56">
         <f>IF(J17 + K17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
@@ -2237,11 +3086,11 @@
       </c>
       <c r="E18" s="4">
         <f>E19</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="F18" s="64">
-        <f t="shared" si="0"/>
-        <v>4.3700000000000045</v>
+        <f t="shared" si="1"/>
+        <v>4.3730000000000047</v>
       </c>
       <c r="I18" s="9"/>
       <c r="K18" s="6"/>
@@ -2257,11 +3106,11 @@
       </c>
       <c r="E19" s="21">
         <f>C9</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="F19" s="64">
-        <f t="shared" si="0"/>
-        <v>4.3700000000000045</v>
+        <f t="shared" si="1"/>
+        <v>4.3730000000000047</v>
       </c>
       <c r="I19" s="9"/>
       <c r="K19" s="58"/>
@@ -2340,11 +3189,11 @@
       </c>
       <c r="C27" s="4">
         <f>E5</f>
-        <v>96</v>
+        <v>96.03</v>
       </c>
       <c r="D27" s="4">
         <f>100-C27</f>
-        <v>4</v>
+        <v>3.9699999999999989</v>
       </c>
       <c r="G27" s="34"/>
       <c r="N27" s="28">
@@ -2445,11 +3294,11 @@
       </c>
       <c r="E32" s="21">
         <f>C27</f>
-        <v>96</v>
+        <v>96.03</v>
       </c>
       <c r="F32" s="64">
-        <f t="shared" ref="F32" si="1">100-E32</f>
-        <v>4</v>
+        <f t="shared" ref="F32" si="2">100-E32</f>
+        <v>3.9699999999999989</v>
       </c>
       <c r="I32" s="9"/>
       <c r="K32" s="59"/>
@@ -2476,19 +3325,19 @@
       </c>
       <c r="E33" s="4">
         <f>E32</f>
-        <v>96</v>
+        <v>96.03</v>
       </c>
       <c r="F33" s="64">
         <f>100-E33</f>
-        <v>4</v>
+        <v>3.9699999999999989</v>
       </c>
       <c r="G33" s="4">
         <f>F33-F35</f>
-        <v>-0.32400000000001228</v>
+        <v>-0.36000000000001364</v>
       </c>
       <c r="H33" s="39">
         <f>G33/25*100</f>
-        <v>-1.2960000000000491</v>
+        <v>-1.4400000000000546</v>
       </c>
       <c r="I33" s="24">
         <f>ABS(TRUNC(H33,0))</f>
@@ -2514,23 +3363,23 @@
       </c>
       <c r="E34" s="21">
         <f>D5</f>
-        <v>95.82</v>
+        <v>95.83</v>
       </c>
       <c r="F34" s="4">
         <f>100-E34</f>
-        <v>4.1800000000000068</v>
+        <v>4.1700000000000017</v>
       </c>
       <c r="I34" s="25">
         <f>MOD(ABS(H33),1)</f>
-        <v>0.29600000000004911</v>
+        <v>0.44000000000005457</v>
       </c>
       <c r="J34" s="56">
         <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
-        <v>0.70399999999995089</v>
+        <v>0.55999999999994543</v>
       </c>
       <c r="K34" s="56">
         <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
-        <v>0.29600000000004911</v>
+        <v>0.44000000000005457</v>
       </c>
       <c r="L34" s="56">
         <f>IF(J34 + K34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
@@ -2564,11 +3413,11 @@
       </c>
       <c r="E35" s="63">
         <f>((E34)-(D33*E33))/D35</f>
-        <v>95.675999999999988</v>
+        <v>95.669999999999987</v>
       </c>
       <c r="F35" s="61">
         <f>100-E35</f>
-        <v>4.3240000000000123</v>
+        <v>4.3300000000000125</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2648,11 +3497,11 @@
       </c>
       <c r="P44" s="67">
         <f>J17</f>
-        <v>0.29000000000002046</v>
+        <v>0.17299999999994498</v>
       </c>
       <c r="Q44" s="67">
         <f>J34</f>
-        <v>0.70399999999995089</v>
+        <v>0.55999999999994543</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
@@ -2664,11 +3513,11 @@
       </c>
       <c r="P45" s="67">
         <f>K34</f>
-        <v>0.29600000000004911</v>
+        <v>0.44000000000005457</v>
       </c>
       <c r="Q45" s="67">
         <f>K17</f>
-        <v>0.70999999999997954</v>
+        <v>0.82700000000005502</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
@@ -2812,12 +3661,12 @@
     <mergeCell ref="J29:M29"/>
   </mergeCells>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2859,4 +3708,942 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CA9CC-DA0C-479A-9F00-024BC33A2CDB}">
+  <dimension ref="A1:U56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="30.125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="30.75" customWidth="1"/>
+    <col min="21" max="21" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="33">
+        <f ca="1">TODAY()</f>
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="33">
+        <f>DATEVALUE("23/05/2025")</f>
+        <v>45800</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29">
+        <v>4</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="30">
+        <v>45627</v>
+      </c>
+      <c r="C4" s="43">
+        <v>45717</v>
+      </c>
+      <c r="D4" s="44">
+        <v>45809</v>
+      </c>
+      <c r="E4" s="30">
+        <v>45901</v>
+      </c>
+      <c r="F4" s="31">
+        <v>45992</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="45">
+        <v>95.626999999999995</v>
+      </c>
+      <c r="D5" s="45">
+        <v>95.83</v>
+      </c>
+      <c r="E5" s="21">
+        <v>96.03</v>
+      </c>
+      <c r="F5" s="4">
+        <v>96.22</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C5</f>
+        <v>95.626999999999995</v>
+      </c>
+      <c r="D9" s="4">
+        <f>100-C9</f>
+        <v>4.3730000000000047</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4">
+        <f>D5</f>
+        <v>95.83</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D11" si="0">100-C10</f>
+        <v>4.1700000000000017</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="34">
+        <f>ABS(P27 - P34)-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4">
+        <f>E5</f>
+        <v>96.03</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9699999999999989</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="34">
+        <f>ABS(P27 - P33)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="J13" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="I15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="34">
+        <f>G10</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C16/(C16+C18)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E16" s="62">
+        <f>(E17-(D18*E18))/D16</f>
+        <v>96.083750000000009</v>
+      </c>
+      <c r="F16" s="4">
+        <f>100-E16</f>
+        <v>3.9162499999999909</v>
+      </c>
+      <c r="G16" s="4">
+        <f>F16-F18</f>
+        <v>-0.45675000000001376</v>
+      </c>
+      <c r="H16" s="39">
+        <f>G16/25*100</f>
+        <v>-1.827000000000055</v>
+      </c>
+      <c r="I16" s="24">
+        <f>ABS(TRUNC(H16,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="21">
+        <f>D5</f>
+        <v>95.83</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:F19" si="1">100-E17</f>
+        <v>4.1700000000000017</v>
+      </c>
+      <c r="I17" s="25">
+        <f>MOD(ABS(H16),1)</f>
+        <v>0.82700000000005502</v>
+      </c>
+      <c r="J17" s="56">
+        <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
+        <v>0.17299999999994498</v>
+      </c>
+      <c r="K17" s="56">
+        <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
+        <v>0.82700000000005502</v>
+      </c>
+      <c r="L17" s="56">
+        <f>IF(J17 + K17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="34">
+        <f>G11</f>
+        <v>50</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18/(C18+C16)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E18" s="4">
+        <f>E19</f>
+        <v>95.626999999999995</v>
+      </c>
+      <c r="F18" s="64">
+        <f t="shared" si="1"/>
+        <v>4.3730000000000047</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="21">
+        <f>C9</f>
+        <v>95.626999999999995</v>
+      </c>
+      <c r="F19" s="64">
+        <f t="shared" si="1"/>
+        <v>4.3730000000000047</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="N22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="O23" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N24" s="28">
+        <v>45717</v>
+      </c>
+      <c r="O24" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="N25" s="28">
+        <v>45717</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="33">
+        <f>DATEVALUE("08/05/2025")</f>
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="N26" s="28">
+        <v>45809</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="33">
+        <f>DATEVALUE("19/06/2025")</f>
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="4">
+        <f>E5</f>
+        <v>96.03</v>
+      </c>
+      <c r="D27" s="4">
+        <f>100-C27</f>
+        <v>3.9699999999999989</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="N27" s="28">
+        <v>45809</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="33">
+        <f>DATEVALUE("07/08/2025")</f>
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N28" s="28">
+        <v>45901</v>
+      </c>
+      <c r="O28" s="52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="28">
+        <v>45901</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="33">
+        <f>DATEVALUE("06/11/2025")</f>
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="28">
+        <v>45992</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
+      <c r="I31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="21">
+        <f>C27</f>
+        <v>96.03</v>
+      </c>
+      <c r="F32" s="64">
+        <f t="shared" ref="F32" si="2">100-E32</f>
+        <v>3.9699999999999989</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="28">
+        <v>45717</v>
+      </c>
+      <c r="O32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="34">
+        <f>G10</f>
+        <v>40</v>
+      </c>
+      <c r="D33" s="6">
+        <f>C33/(C33+C35)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E33" s="4">
+        <f>E32</f>
+        <v>96.03</v>
+      </c>
+      <c r="F33" s="64">
+        <f>100-E33</f>
+        <v>3.9699999999999989</v>
+      </c>
+      <c r="G33" s="4">
+        <f>F33-F35</f>
+        <v>-0.36000000000001364</v>
+      </c>
+      <c r="H33" s="39">
+        <f>G33/25*100</f>
+        <v>-1.4400000000000546</v>
+      </c>
+      <c r="I33" s="24">
+        <f>ABS(TRUNC(H33,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="28">
+        <v>45809</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="33">
+        <f>DATEVALUE("18/06/2025")</f>
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="21">
+        <f>D5</f>
+        <v>95.83</v>
+      </c>
+      <c r="F34" s="4">
+        <f>100-E34</f>
+        <v>4.1700000000000017</v>
+      </c>
+      <c r="I34" s="25">
+        <f>MOD(ABS(H33),1)</f>
+        <v>0.44000000000005457</v>
+      </c>
+      <c r="J34" s="56">
+        <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
+        <v>0.55999999999994543</v>
+      </c>
+      <c r="K34" s="56">
+        <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
+        <v>0.44000000000005457</v>
+      </c>
+      <c r="L34" s="56">
+        <f>IF(J34 + K34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="57">
+        <v>0</v>
+      </c>
+      <c r="N34" s="28">
+        <v>45901</v>
+      </c>
+      <c r="O34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="33">
+        <f>DATEVALUE("17/09/2025")</f>
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="60">
+        <f>G11</f>
+        <v>50</v>
+      </c>
+      <c r="D35" s="58">
+        <f>C35/(C35+C33)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E35" s="63">
+        <f>((E34)-(D33*E33))/D35</f>
+        <v>95.669999999999987</v>
+      </c>
+      <c r="F35" s="61">
+        <f>100-E35</f>
+        <v>4.3300000000000125</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="28">
+        <v>45992</v>
+      </c>
+      <c r="O35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="O44" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="67">
+        <f>J17</f>
+        <v>0.17299999999994498</v>
+      </c>
+      <c r="Q44" s="67">
+        <f>J34</f>
+        <v>0.55999999999994543</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" s="67">
+        <f>K34</f>
+        <v>0.44000000000005457</v>
+      </c>
+      <c r="Q45" s="67">
+        <f>K17</f>
+        <v>0.82700000000005502</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="O46" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P46" s="67">
+        <f>L34</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="67">
+        <f>L17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B53" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J29:M29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B55" r:id="rId1" display="https://www.cmegroup.com/articles/2023/understanding-the-cme-group-fedwatch-tool-methodology.html" xr:uid="{19602B5A-9335-4E81-AFDC-B7753A6A6B97}"/>
+    <hyperlink ref="B56" r:id="rId2" display="https://www.ice.com/products/68361266/Three-Month-SONIA-Index-Futures/data" xr:uid="{7149CF88-8F84-4AFD-BC50-006B501C22E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E6EC4-3C53-4CAB-B546-A55A1B1AA235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F7D13-F87C-4DF6-97ED-EDDAB873AE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
     <sheet name="Note_using the next Q as anchor" sheetId="4" r:id="rId2"/>
-    <sheet name="Model_example_using2anchor (2)" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model_example_using2anchor!$O$44</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model_example_using2anchor!$O$45</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model_example_using2anchor!$P$44:$Q$44</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Model_example_using2anchor!$P$45:$Q$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Model_example_using2anchor (2)'!$O$44</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Model_example_using2anchor (2)'!$O$45</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Model_example_using2anchor (2)'!$P$44:$Q$44</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Model_example_using2anchor (2)'!$P$45:$Q$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -181,58 +176,6 @@
   </si>
   <si>
     <t>SONIA Start = [ (Avg SONIA) - (% days after meet.)*(SONIA End) ] / (% days before meet.)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">N = # of days </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>before</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the LAST MoC that the 3-months SONIA contract cover </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">M = # of days </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>after</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the LAST MoC until the delivery date of the 3-months SONIA contract</t>
-    </r>
   </si>
   <si>
     <r>
@@ -909,27 +852,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1074,152 +997,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204"/>
-              </a:rPr>
-              <a:t>Range of rate </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204"/>
-              </a:rPr>
-              <a:t>cut</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204"/>
-              </a:rPr>
-              <a:t> probability from Jun - Sep 2025 as of 23 May</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{F172C1B1-4B23-48BD-99D9-58E38182A4A3}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>25 bp</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4DE4518D-7DB3-4762-A228-5F22CE802E6B}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
-              <cx:v>50 bp</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1774,521 +1552,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2312,89 +1575,6 @@
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786E2D30-98BC-0F37-4682-8276F3EBA5FA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14330082" y="1010210"/>
-              <a:ext cx="4392145" cy="2970120"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1109382</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28EB0B9-8D68-419A-AD8A-0BC8D72B307A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2749,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2790,7 +1970,7 @@
         <v>45800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2896,12 +2076,12 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
         <f>C5</f>
@@ -2912,12 +2092,12 @@
         <v>4.3730000000000047</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <f>D5</f>
@@ -2937,7 +2117,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4">
         <f>E5</f>
@@ -2957,7 +2137,7 @@
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="J13" s="68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="69"/>
       <c r="L13" s="69"/>
@@ -2978,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>41</v>
@@ -3134,7 +2314,7 @@
     </row>
     <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="N22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>27</v>
@@ -3185,7 +2365,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4">
         <f>E5</f>
@@ -3217,10 +2397,10 @@
     </row>
     <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J29" s="68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
@@ -3251,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>41</v>
@@ -3290,7 +2470,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B32" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="21">
         <f>C27</f>
@@ -3448,7 +2628,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
@@ -3461,30 +2641,30 @@
     </row>
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O43" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -3493,7 +2673,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="O44" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P44" s="67">
         <f>J17</f>
@@ -3509,7 +2689,7 @@
         <v>7</v>
       </c>
       <c r="O45" s="65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P45" s="67">
         <f>K34</f>
@@ -3533,7 +2713,7 @@
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="O46" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P46" s="67">
         <f>L34</f>
@@ -3546,7 +2726,7 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -3632,7 +2812,7 @@
     </row>
     <row r="53" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B53" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
@@ -3647,12 +2827,12 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3661,12 +2841,12 @@
     <mergeCell ref="J29:M29"/>
   </mergeCells>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3685,965 +2865,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CA9CC-DA0C-479A-9F00-024BC33A2CDB}">
-  <dimension ref="A1:U56"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="30.125" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="12.25" customWidth="1"/>
-    <col min="20" max="20" width="30.75" customWidth="1"/>
-    <col min="21" max="21" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="33">
-        <f ca="1">TODAY()</f>
-        <v>45800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="33">
-        <f>DATEVALUE("23/05/2025")</f>
-        <v>45800</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="41">
-        <v>2</v>
-      </c>
-      <c r="D3" s="42">
-        <v>3</v>
-      </c>
-      <c r="E3" s="29">
-        <v>4</v>
-      </c>
-      <c r="F3" s="29">
-        <v>1</v>
-      </c>
-      <c r="G3" s="29">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="30">
-        <v>45627</v>
-      </c>
-      <c r="C4" s="43">
-        <v>45717</v>
-      </c>
-      <c r="D4" s="44">
-        <v>45809</v>
-      </c>
-      <c r="E4" s="30">
-        <v>45901</v>
-      </c>
-      <c r="F4" s="31">
-        <v>45992</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="N4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="45">
-        <v>95.626999999999995</v>
-      </c>
-      <c r="D5" s="45">
-        <v>95.83</v>
-      </c>
-      <c r="E5" s="21">
-        <v>96.03</v>
-      </c>
-      <c r="F5" s="4">
-        <v>96.22</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C5</f>
-        <v>95.626999999999995</v>
-      </c>
-      <c r="D9" s="4">
-        <f>100-C9</f>
-        <v>4.3730000000000047</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="4">
-        <f>D5</f>
-        <v>95.83</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:D11" si="0">100-C10</f>
-        <v>4.1700000000000017</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="34">
-        <f>ABS(P27 - P34)-1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4">
-        <f>E5</f>
-        <v>96.03</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9699999999999989</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="34">
-        <f>ABS(P27 - P33)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="J13" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-    </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="I15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="34">
-        <f>G10</f>
-        <v>40</v>
-      </c>
-      <c r="D16" s="6">
-        <f>C16/(C16+C18)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E16" s="62">
-        <f>(E17-(D18*E18))/D16</f>
-        <v>96.083750000000009</v>
-      </c>
-      <c r="F16" s="4">
-        <f>100-E16</f>
-        <v>3.9162499999999909</v>
-      </c>
-      <c r="G16" s="4">
-        <f>F16-F18</f>
-        <v>-0.45675000000001376</v>
-      </c>
-      <c r="H16" s="39">
-        <f>G16/25*100</f>
-        <v>-1.827000000000055</v>
-      </c>
-      <c r="I16" s="24">
-        <f>ABS(TRUNC(H16,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="21">
-        <f>D5</f>
-        <v>95.83</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F17:F19" si="1">100-E17</f>
-        <v>4.1700000000000017</v>
-      </c>
-      <c r="I17" s="25">
-        <f>MOD(ABS(H16),1)</f>
-        <v>0.82700000000005502</v>
-      </c>
-      <c r="J17" s="56">
-        <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
-        <v>0.17299999999994498</v>
-      </c>
-      <c r="K17" s="56">
-        <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
-        <v>0.82700000000005502</v>
-      </c>
-      <c r="L17" s="56">
-        <f>IF(J17 + K17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="34">
-        <f>G11</f>
-        <v>50</v>
-      </c>
-      <c r="D18" s="6">
-        <f>C18/(C18+C16)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E18" s="4">
-        <f>E19</f>
-        <v>95.626999999999995</v>
-      </c>
-      <c r="F18" s="64">
-        <f t="shared" si="1"/>
-        <v>4.3730000000000047</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="21">
-        <f>C9</f>
-        <v>95.626999999999995</v>
-      </c>
-      <c r="F19" s="64">
-        <f t="shared" si="1"/>
-        <v>4.3730000000000047</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="N22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="O23" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N24" s="28">
-        <v>45717</v>
-      </c>
-      <c r="O24" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="N25" s="28">
-        <v>45717</v>
-      </c>
-      <c r="O25" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="33">
-        <f>DATEVALUE("08/05/2025")</f>
-        <v>45785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="N26" s="28">
-        <v>45809</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="33">
-        <f>DATEVALUE("19/06/2025")</f>
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="4">
-        <f>E5</f>
-        <v>96.03</v>
-      </c>
-      <c r="D27" s="4">
-        <f>100-C27</f>
-        <v>3.9699999999999989</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="N27" s="28">
-        <v>45809</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="33">
-        <f>DATEVALUE("07/08/2025")</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N28" s="28">
-        <v>45901</v>
-      </c>
-      <c r="O28" s="52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="28">
-        <v>45901</v>
-      </c>
-      <c r="O29" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="33">
-        <f>DATEVALUE("06/11/2025")</f>
-        <v>45967</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="45" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" s="28">
-        <v>45992</v>
-      </c>
-      <c r="O30" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="I31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="21">
-        <f>C27</f>
-        <v>96.03</v>
-      </c>
-      <c r="F32" s="64">
-        <f t="shared" ref="F32" si="2">100-E32</f>
-        <v>3.9699999999999989</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="28">
-        <v>45717</v>
-      </c>
-      <c r="O32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="34">
-        <f>G10</f>
-        <v>40</v>
-      </c>
-      <c r="D33" s="6">
-        <f>C33/(C33+C35)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E33" s="4">
-        <f>E32</f>
-        <v>96.03</v>
-      </c>
-      <c r="F33" s="64">
-        <f>100-E33</f>
-        <v>3.9699999999999989</v>
-      </c>
-      <c r="G33" s="4">
-        <f>F33-F35</f>
-        <v>-0.36000000000001364</v>
-      </c>
-      <c r="H33" s="39">
-        <f>G33/25*100</f>
-        <v>-1.4400000000000546</v>
-      </c>
-      <c r="I33" s="24">
-        <f>ABS(TRUNC(H33,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="28">
-        <v>45809</v>
-      </c>
-      <c r="O33" t="s">
-        <v>29</v>
-      </c>
-      <c r="P33" s="33">
-        <f>DATEVALUE("18/06/2025")</f>
-        <v>45826</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="21">
-        <f>D5</f>
-        <v>95.83</v>
-      </c>
-      <c r="F34" s="4">
-        <f>100-E34</f>
-        <v>4.1700000000000017</v>
-      </c>
-      <c r="I34" s="25">
-        <f>MOD(ABS(H33),1)</f>
-        <v>0.44000000000005457</v>
-      </c>
-      <c r="J34" s="56">
-        <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
-        <v>0.55999999999994543</v>
-      </c>
-      <c r="K34" s="56">
-        <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
-        <v>0.44000000000005457</v>
-      </c>
-      <c r="L34" s="56">
-        <f>IF(J34 + K34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="57">
-        <v>0</v>
-      </c>
-      <c r="N34" s="28">
-        <v>45901</v>
-      </c>
-      <c r="O34" t="s">
-        <v>30</v>
-      </c>
-      <c r="P34" s="33">
-        <f>DATEVALUE("17/09/2025")</f>
-        <v>45917</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="60">
-        <f>G11</f>
-        <v>50</v>
-      </c>
-      <c r="D35" s="58">
-        <f>C35/(C35+C33)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E35" s="63">
-        <f>((E34)-(D33*E33))/D35</f>
-        <v>95.669999999999987</v>
-      </c>
-      <c r="F35" s="61">
-        <f>100-E35</f>
-        <v>4.3300000000000125</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="28">
-        <v>45992</v>
-      </c>
-      <c r="O35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="O43" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="O44" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="P44" s="67">
-        <f>J17</f>
-        <v>0.17299999999994498</v>
-      </c>
-      <c r="Q44" s="67">
-        <f>J34</f>
-        <v>0.55999999999994543</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="O45" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="P45" s="67">
-        <f>K34</f>
-        <v>0.44000000000005457</v>
-      </c>
-      <c r="Q45" s="67">
-        <f>K17</f>
-        <v>0.82700000000005502</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="O46" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="P46" s="67">
-        <f>L34</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="67">
-        <f>L17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-    </row>
-    <row r="53" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B53" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J29:M29"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1" display="https://www.cmegroup.com/articles/2023/understanding-the-cme-group-fedwatch-tool-methodology.html" xr:uid="{19602B5A-9335-4E81-AFDC-B7753A6A6B97}"/>
-    <hyperlink ref="B56" r:id="rId2" display="https://www.ice.com/products/68361266/Three-Month-SONIA-Index-Futures/data" xr:uid="{7149CF88-8F84-4AFD-BC50-006B501C22E1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
 </file>
--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F7D13-F87C-4DF6-97ED-EDDAB873AE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFD1A4-1C60-4985-827A-6C346FA7B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -428,6 +428,9 @@
       </rPr>
       <t xml:space="preserve"> the LAST MPC that the 3-months SONIA contract cover </t>
     </r>
+  </si>
+  <si>
+    <t>0bps</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,9 +763,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -843,9 +843,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1556,16 +1568,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1109382</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1601,8 +1613,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14330082" y="1010210"/>
-              <a:ext cx="4392145" cy="2970120"/>
+              <a:off x="15945971" y="1064559"/>
+              <a:ext cx="4325470" cy="2958354"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1929,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1945,9 +1957,10 @@
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="19.125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="30.125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
     <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.75" customWidth="1"/>
     <col min="21" max="21" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1956,7 +1969,7 @@
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <f ca="1">TODAY()</f>
         <v>45800</v>
       </c>
@@ -1965,7 +1978,7 @@
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <f>DATEVALUE("23/05/2025")</f>
         <v>45800</v>
       </c>
@@ -1974,22 +1987,22 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>2</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>3</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>4</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>1</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>2</v>
       </c>
       <c r="H3" s="1"/>
@@ -1997,34 +2010,34 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>45627</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <v>45717</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>45809</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>45901</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>45992</v>
       </c>
       <c r="G4" s="2"/>
@@ -2033,26 +2046,26 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>95.626999999999995</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>95.83</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>96.03</v>
       </c>
       <c r="F5" s="4">
@@ -2110,8 +2123,8 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="34">
-        <f>ABS(P27 - P34)-1</f>
+      <c r="G10" s="33">
+        <f>ABS(R27 - R34)-1</f>
         <v>40</v>
       </c>
     </row>
@@ -2130,18 +2143,19 @@
       <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="34">
-        <f>ABS(P27 - P33)</f>
+      <c r="G11" s="33">
+        <f>ABS(R27 - R33)</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
@@ -2154,41 +2168,48 @@
       <c r="E14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="N14" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
       <c r="I15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <f>G10</f>
         <v>40</v>
       </c>
@@ -2196,7 +2217,7 @@
         <f>C16/(C16+C18)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="61">
         <f>(E17-(D18*E18))/D16</f>
         <v>96.083750000000009</v>
       </c>
@@ -2208,23 +2229,25 @@
         <f>F16-F18</f>
         <v>-0.45675000000001376</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="38">
         <f>G16/25*100</f>
         <v>-1.827000000000055</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <f>ABS(TRUNC(H16,0))</f>
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
+      <c r="J16" s="70"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f>D5</f>
         <v>95.83</v>
       </c>
@@ -2232,31 +2255,35 @@
         <f t="shared" ref="F17:F19" si="1">100-E17</f>
         <v>4.1700000000000017</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <f>MOD(ABS(H16),1)</f>
         <v>0.82700000000005502</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="72">
+        <f>IF(I16=0,1-I17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="73">
         <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
         <v>0.17299999999994498</v>
       </c>
-      <c r="K17" s="56">
+      <c r="L17" s="73">
         <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
         <v>0.82700000000005502</v>
       </c>
-      <c r="L17" s="56">
-        <f>IF(J17 + K17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
+      <c r="M17" s="73">
+        <f>IF(K17 + L17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="57">
+      <c r="N17" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <f>G11</f>
         <v>50</v>
       </c>
@@ -2268,102 +2295,106 @@
         <f>E19</f>
         <v>95.626999999999995</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="63">
         <f t="shared" si="1"/>
         <v>4.3730000000000047</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J18" s="70"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f>C9</f>
         <v>95.626999999999995</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="63">
         <f t="shared" si="1"/>
         <v>4.3730000000000047</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="69"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="N22" s="3" t="s">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="O23" s="47" t="s">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q23" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N24" s="28">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P24" s="27">
         <v>45717</v>
       </c>
-      <c r="O24" s="48" t="s">
+      <c r="Q24" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
-      <c r="N25" s="28">
+      <c r="P25" s="27">
         <v>45717</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="Q25" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="33">
+      <c r="R25" s="32">
         <f>DATEVALUE("08/05/2025")</f>
         <v>45785</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="N26" s="28">
+      <c r="G26" s="33"/>
+      <c r="P26" s="27">
         <v>45809</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="Q26" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
@@ -2375,48 +2406,49 @@
         <f>100-C27</f>
         <v>3.9699999999999989</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="N27" s="28">
+      <c r="G27" s="33"/>
+      <c r="P27" s="27">
         <v>45809</v>
       </c>
-      <c r="O27" s="51" t="s">
+      <c r="Q27" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="33">
+      <c r="R27" s="32">
         <f>DATEVALUE("07/08/2025")</f>
         <v>45876</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N28" s="28">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P28" s="27">
         <v>45901</v>
       </c>
-      <c r="O28" s="52" t="s">
+      <c r="Q28" s="51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="28">
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="77"/>
+      <c r="P29" s="27">
         <v>45901</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="Q29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="33">
+      <c r="R29" s="32">
         <f>DATEVALUE("06/11/2025")</f>
         <v>45967</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
         <v>3</v>
@@ -2427,75 +2459,80 @@
       <c r="E30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="L30" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="M30" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="N30" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="28">
+      <c r="P30" s="27">
         <v>45992</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="Q30" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="35"/>
       <c r="I31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="54" t="s">
+      <c r="J31" s="70"/>
+      <c r="N31" s="9"/>
+      <c r="P31" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="38" t="s">
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <f>C27</f>
         <v>96.03</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="63">
         <f t="shared" ref="F32" si="2">100-E32</f>
         <v>3.9699999999999989</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="28">
+      <c r="J32" s="70"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="9"/>
+      <c r="P32" s="27">
         <v>45717</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <f>G10</f>
         <v>40</v>
       </c>
@@ -2507,7 +2544,7 @@
         <f>E32</f>
         <v>96.03</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="63">
         <f>100-E33</f>
         <v>3.9699999999999989</v>
       </c>
@@ -2515,33 +2552,33 @@
         <f>F33-F35</f>
         <v>-0.36000000000001364</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="38">
         <f>G33/25*100</f>
         <v>-1.4400000000000546</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="23">
         <f>ABS(TRUNC(H33,0))</f>
         <v>1</v>
       </c>
-      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="28">
+      <c r="M33" s="4"/>
+      <c r="N33" s="9"/>
+      <c r="P33" s="27">
         <v>45809</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>29</v>
       </c>
-      <c r="P33" s="33">
+      <c r="R33" s="32">
         <f>DATEVALUE("18/06/2025")</f>
         <v>45826</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <f>D5</f>
         <v>95.83</v>
       </c>
@@ -2549,97 +2586,106 @@
         <f>100-E34</f>
         <v>4.1700000000000017</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <f>MOD(ABS(H33),1)</f>
         <v>0.44000000000005457</v>
       </c>
-      <c r="J34" s="56">
+      <c r="J34" s="72">
+        <f>IF(I33=0,1-I34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="55">
         <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
         <v>0.55999999999994543</v>
       </c>
-      <c r="K34" s="56">
+      <c r="L34" s="55">
         <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
         <v>0.44000000000005457</v>
       </c>
-      <c r="L34" s="56">
-        <f>IF(J34 + K34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
+      <c r="M34" s="55">
+        <f>IF(K34 + L34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
         <v>0</v>
       </c>
-      <c r="M34" s="57">
+      <c r="N34" s="56">
         <v>0</v>
       </c>
-      <c r="N34" s="28">
+      <c r="P34" s="27">
         <v>45901</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>30</v>
       </c>
-      <c r="P34" s="33">
+      <c r="R34" s="32">
         <f>DATEVALUE("17/09/2025")</f>
         <v>45917</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="59">
         <f>G11</f>
         <v>50</v>
       </c>
-      <c r="D35" s="58">
+      <c r="D35" s="57">
         <f>C35/(C35+C33)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="62">
         <f>((E34)-(D33*E33))/D35</f>
         <v>95.669999999999987</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="60">
         <f>100-E35</f>
         <v>4.3300000000000125</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="28">
+      <c r="J35" s="17"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="10"/>
+      <c r="P35" s="27">
         <v>45992</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="R35" s="32">
+        <f>DATEVALUE("17/12/2025")</f>
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="2:18" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -2647,191 +2693,191 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="66" t="s">
+      <c r="O43" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="66"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="23" t="s">
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="O44" s="65" t="s">
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="O44" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="P44" s="67">
-        <f>J17</f>
+      <c r="P44" s="66">
+        <f>K17</f>
         <v>0.17299999999994498</v>
       </c>
-      <c r="Q44" s="67">
-        <f>J34</f>
+      <c r="Q44" s="66">
+        <f>K34</f>
         <v>0.55999999999994543</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="65" t="s">
+      <c r="O45" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="67">
-        <f>K34</f>
+      <c r="P45" s="66">
+        <f>L34</f>
         <v>0.44000000000005457</v>
       </c>
-      <c r="Q45" s="67">
-        <f>K17</f>
+      <c r="Q45" s="66">
+        <f>L17</f>
         <v>0.82700000000005502</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="O46" s="65" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="O46" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="P46" s="67">
-        <f>L34</f>
+      <c r="P46" s="66">
+        <f>M34</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="67">
-        <f>L17</f>
+      <c r="Q46" s="66">
+        <f>M17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="27" t="s">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="27" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
     </row>
     <row r="53" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="45" t="s">
         <v>53</v>
       </c>
     </row>

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADFD1A4-1C60-4985-827A-6C346FA7B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B68C9B-207D-4A8B-A027-5BC202EA5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
     <sheet name="Note_using the next Q as anchor" sheetId="4" r:id="rId2"/>
+    <sheet name="CFA_Methodology" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model_example_using2anchor!$O$44</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -737,7 +738,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,15 +838,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -858,6 +851,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1568,16 +1567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1613,7 +1612,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15945971" y="1064559"/>
+              <a:off x="15116736" y="862853"/>
               <a:ext cx="4325470" cy="2958354"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1941,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1970,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">TODAY()</f>
-        <v>45800</v>
+        <v>45801</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2066,10 +2065,10 @@
         <v>95.83</v>
       </c>
       <c r="E5" s="20">
-        <v>96.03</v>
+        <v>96.025000000000006</v>
       </c>
       <c r="F5" s="4">
-        <v>96.22</v>
+        <v>96.224999999999994</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2134,11 +2133,11 @@
       </c>
       <c r="C11" s="4">
         <f>E5</f>
-        <v>96.03</v>
+        <v>96.025000000000006</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>3.9699999999999989</v>
+        <v>3.9749999999999943</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2149,13 +2148,13 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="77"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
@@ -2180,29 +2179,26 @@
       <c r="I14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="74" t="s">
+      <c r="J14" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="75" t="s">
+      <c r="M14" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="N14" s="72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" s="35"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="J15" s="67"/>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2237,10 +2233,9 @@
         <f>ABS(TRUNC(H16,0))</f>
         <v>1</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
+      <c r="J16" s="67"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -2259,19 +2254,19 @@
         <f>MOD(ABS(H16),1)</f>
         <v>0.82700000000005502</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="68">
         <f>IF(I16=0,1-I17,0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="69">
         <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
         <v>0.17299999999994498</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17" s="69">
         <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
         <v>0.82700000000005502</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="69">
         <f>IF(K17 + L17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
         <v>0</v>
       </c>
@@ -2300,8 +2295,7 @@
         <v>4.3730000000000047</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="69"/>
+      <c r="J18" s="67"/>
       <c r="L18" s="58"/>
       <c r="M18" s="58"/>
       <c r="N18" s="9"/>
@@ -2337,7 +2331,6 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="N21" s="3"/>
@@ -2400,11 +2393,11 @@
       </c>
       <c r="C27" s="4">
         <f>E5</f>
-        <v>96.03</v>
+        <v>96.025000000000006</v>
       </c>
       <c r="D27" s="4">
         <f>100-C27</f>
-        <v>3.9699999999999989</v>
+        <v>3.9749999999999943</v>
       </c>
       <c r="G27" s="33"/>
       <c r="P27" s="27">
@@ -2430,13 +2423,13 @@
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="77"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="73"/>
       <c r="P29" s="27">
         <v>45901</v>
       </c>
@@ -2471,19 +2464,19 @@
       <c r="I30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="74" t="s">
+      <c r="J30" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="76" t="s">
+      <c r="N30" s="72" t="s">
         <v>11</v>
       </c>
       <c r="P30" s="27">
@@ -2496,7 +2489,7 @@
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="35"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="70"/>
+      <c r="J31" s="67"/>
       <c r="N31" s="9"/>
       <c r="P31" s="53" t="s">
         <v>32</v>
@@ -2510,14 +2503,14 @@
       </c>
       <c r="E32" s="20">
         <f>C27</f>
-        <v>96.03</v>
+        <v>96.025000000000006</v>
       </c>
       <c r="F32" s="63">
         <f t="shared" ref="F32" si="2">100-E32</f>
-        <v>3.9699999999999989</v>
+        <v>3.9749999999999943</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="70"/>
+      <c r="J32" s="67"/>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
       <c r="N32" s="9"/>
@@ -2542,19 +2535,19 @@
       </c>
       <c r="E33" s="4">
         <f>E32</f>
-        <v>96.03</v>
+        <v>96.025000000000006</v>
       </c>
       <c r="F33" s="63">
         <f>100-E33</f>
-        <v>3.9699999999999989</v>
+        <v>3.9749999999999943</v>
       </c>
       <c r="G33" s="4">
         <f>F33-F35</f>
-        <v>-0.36000000000001364</v>
+        <v>-0.3510000000000133</v>
       </c>
       <c r="H33" s="38">
         <f>G33/25*100</f>
-        <v>-1.4400000000000546</v>
+        <v>-1.4040000000000532</v>
       </c>
       <c r="I33" s="23">
         <f>ABS(TRUNC(H33,0))</f>
@@ -2588,19 +2581,19 @@
       </c>
       <c r="I34" s="24">
         <f>MOD(ABS(H33),1)</f>
-        <v>0.44000000000005457</v>
-      </c>
-      <c r="J34" s="72">
+        <v>0.40400000000005321</v>
+      </c>
+      <c r="J34" s="68">
         <f>IF(I33=0,1-I34,0)</f>
         <v>0</v>
       </c>
       <c r="K34" s="55">
         <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
-        <v>0.55999999999994543</v>
+        <v>0.59599999999994679</v>
       </c>
       <c r="L34" s="55">
         <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
-        <v>0.44000000000005457</v>
+        <v>0.40400000000005321</v>
       </c>
       <c r="M34" s="55">
         <f>IF(K34 + L34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
@@ -2634,11 +2627,11 @@
       </c>
       <c r="E35" s="62">
         <f>((E34)-(D33*E33))/D35</f>
-        <v>95.669999999999987</v>
+        <v>95.673999999999992</v>
       </c>
       <c r="F35" s="60">
         <f>100-E35</f>
-        <v>4.3300000000000125</v>
+        <v>4.3260000000000076</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -2727,7 +2720,7 @@
       </c>
       <c r="Q44" s="66">
         <f>K34</f>
-        <v>0.55999999999994543</v>
+        <v>0.59599999999994679</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
@@ -2739,7 +2732,7 @@
       </c>
       <c r="P45" s="66">
         <f>L34</f>
-        <v>0.44000000000005457</v>
+        <v>0.40400000000005321</v>
       </c>
       <c r="Q45" s="66">
         <f>L17</f>
@@ -2934,4 +2927,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F166E4D-0D17-48C2-B2CB-7100516C71BC}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="32">
+        <f ca="1">TODAY()</f>
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="32">
+        <f>DATEVALUE("23/05/2025")</f>
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="40">
+        <v>2</v>
+      </c>
+      <c r="D3" s="41">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="29">
+        <v>45627</v>
+      </c>
+      <c r="C4" s="42">
+        <v>45717</v>
+      </c>
+      <c r="D4" s="43">
+        <v>45809</v>
+      </c>
+      <c r="E4" s="29">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="44">
+        <v>95.626999999999995</v>
+      </c>
+      <c r="D5" s="44">
+        <v>95.83</v>
+      </c>
+      <c r="E5" s="20">
+        <v>96.025000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C5</f>
+        <v>95.626999999999995</v>
+      </c>
+      <c r="D9" s="4">
+        <f>100-C9</f>
+        <v>4.3730000000000047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4">
+        <f>D5</f>
+        <v>95.83</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D11" si="0">100-C10</f>
+        <v>4.1700000000000017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4">
+        <f>E5</f>
+        <v>96.025000000000006</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9749999999999943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B68C9B-207D-4A8B-A027-5BC202EA5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A000FB8D-096A-419A-BB10-BB197A8BB907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>0bps</t>
+  </si>
+  <si>
+    <t>NB: In the UK it doesn't appear to have an equivalence of forward guidance target rate range. So the closest we have would be the SONIA rate itself</t>
+  </si>
+  <si>
+    <t>CFA formula on the implied probability of rate hike/cut: Implied EFFR - Current Federal fund rate target/(0.25), given each rate hike/cut is by 25bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current SONIA rate </t>
+  </si>
+  <si>
+    <t>Probability of a rate hike/cut</t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,6 +869,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1612,8 +1640,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15116736" y="862853"/>
-              <a:ext cx="4325470" cy="2958354"/>
+              <a:off x="15148112" y="864534"/>
+              <a:ext cx="4323790" cy="2968439"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1940,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2076,6 +2104,12 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>100-4.21</f>
+        <v>95.79</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -2931,18 +2965,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F166E4D-0D17-48C2-B2CB-7100516C71BC}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
@@ -2950,8 +2988,11 @@
         <f ca="1">TODAY()</f>
         <v>45801</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2960,7 +3001,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="28">
         <v>1</v>
       </c>
@@ -2973,8 +3014,11 @@
       <c r="E3" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2991,7 +3035,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="44">
         <v>95.626999999999995</v>
@@ -3003,18 +3047,18 @@
         <v>96.025000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
@@ -3026,8 +3070,11 @@
         <f>100-C9</f>
         <v>4.3730000000000047</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
@@ -3040,7 +3087,7 @@
         <v>4.1700000000000017</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>58</v>
       </c>
@@ -3052,6 +3099,65 @@
         <f t="shared" si="0"/>
         <v>3.9749999999999943</v>
       </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="67"/>
+      <c r="C15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="58">
+        <f>1-ABS(SUM(D16:G16))</f>
+        <v>0.84000000000000696</v>
+      </c>
+      <c r="D16" s="81">
+        <f>(D10-$E$9)/0.25</f>
+        <v>-0.15999999999999304</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="57">
+        <f>1-ABS(SUM(D17:G17))</f>
+        <v>5.9999999999977405E-2</v>
+      </c>
+      <c r="D17" s="83">
+        <f>(D11-$E$9)/0.25</f>
+        <v>-0.9400000000000226</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A000FB8D-096A-419A-BB10-BB197A8BB907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2003A3CB-7FAE-48C9-90F3-2FE58A791CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>Probability of a rate hike/cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The problem with the BoE is that, unlike FED, it does not provide a forward guidance on their target range of where interest rate will be. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are willing to assume the next quarter future price to be proxy of the target range, then we can obtain the implied probability of rate hike/cut. However, that will be more of an expected target range by the market of where rate might be at the end of the current contract. </t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This implies 78% of 1 rate cut only in the next MPC meeting. </t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,35 +875,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1968,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2182,12 +2207,12 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
       <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
@@ -2457,12 +2482,12 @@
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="74" t="s">
+      <c r="J29" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
       <c r="N29" s="73"/>
       <c r="P29" s="27">
         <v>45901</v>
@@ -2914,12 +2939,12 @@
     <mergeCell ref="J29:M29"/>
   </mergeCells>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2965,10 +2990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F166E4D-0D17-48C2-B2CB-7100516C71BC}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3046,6 +3071,14 @@
       <c r="E5" s="20">
         <v>96.025000000000006</v>
       </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
@@ -3063,7 +3096,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="4">
-        <f>C5</f>
+        <f>Model_example_using2anchor!C5</f>
         <v>95.626999999999995</v>
       </c>
       <c r="D9" s="4">
@@ -3079,11 +3112,11 @@
         <v>70</v>
       </c>
       <c r="C10" s="4">
-        <f>D5</f>
+        <f>Model_example_using2anchor!D5</f>
         <v>95.83</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:D11" si="0">100-C10</f>
+        <f t="shared" ref="D10:D12" si="0">100-C10</f>
         <v>4.1700000000000017</v>
       </c>
     </row>
@@ -3092,7 +3125,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="4">
-        <f>E5</f>
+        <f>Model_example_using2anchor!E5</f>
         <v>96.025000000000006</v>
       </c>
       <c r="D11" s="4">
@@ -3100,66 +3133,88 @@
         <v>3.9749999999999943</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>96.224999999999994</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7750000000000057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G15" s="76"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
-      <c r="C15" s="79" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="67"/>
+      <c r="C17" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D17" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="76" t="s">
+      <c r="E17" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="58">
-        <f>1-ABS(SUM(D16:G16))</f>
-        <v>0.84000000000000696</v>
-      </c>
-      <c r="D16" s="81">
-        <f>(D10-$E$9)/0.25</f>
-        <v>-0.15999999999999304</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="78" t="s">
+      <c r="C18" s="58">
+        <f>1-ABS(SUM(D18:F18))</f>
+        <v>0.21999999999997044</v>
+      </c>
+      <c r="D18" s="58">
+        <f>(D11-D10)/0.25</f>
+        <v>-0.78000000000002956</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="78"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="57">
-        <f>1-ABS(SUM(D17:G17))</f>
-        <v>5.9999999999977405E-2</v>
-      </c>
-      <c r="D17" s="83">
-        <f>(D11-$E$9)/0.25</f>
-        <v>-0.9400000000000226</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="C19" s="57">
+        <f>1-ABS(SUM(D19:F19))</f>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="D19" s="57">
+        <f>(D12-D11)/0.25</f>
+        <v>-0.79999999999995453</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="80"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="84" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2003A3CB-7FAE-48C9-90F3-2FE58A791CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF3453-936E-4F44-933A-AE0DF7B70DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>5. Calculate the adjacent SONIA Start/End using the formulas above.</t>
   </si>
   <si>
-    <t>8. We can start calculating the probability tree - start with the nearest SONIA meeting:</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">        9.2 The joint probabilities are simple multiplications of the individual hike size Probs. (e.g. Prob(50bps)</t>
     </r>
@@ -300,9 +297,6 @@
     <t>Future Contract</t>
   </si>
   <si>
-    <t>6. Calculate the Quartly Change for the quarter with MOC meetings (Col. G).</t>
-  </si>
-  <si>
     <t>Quarterly Change</t>
   </si>
   <si>
@@ -449,13 +443,19 @@
     <t xml:space="preserve">The problem with the BoE is that, unlike FED, it does not provide a forward guidance on their target range of where interest rate will be. </t>
   </si>
   <si>
-    <t xml:space="preserve">If we are willing to assume the next quarter future price to be proxy of the target range, then we can obtain the implied probability of rate hike/cut. However, that will be more of an expected target range by the market of where rate might be at the end of the current contract. </t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
     <t xml:space="preserve">This implies 78% of 1 rate cut only in the next MPC meeting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are willing to assume the next quarter future price to be proxy of the target range (which we shouldn't), then we can obtain the implied probability of rate hike/cut. However, that will be more of an expected target range by the market of where rate might be at the end of the current contract. </t>
+  </si>
+  <si>
+    <t>6. Calculate the Quartly Change for the quarter with MPC meetings (Col. G).</t>
+  </si>
+  <si>
+    <t>8. We can start calculating the probability tree - start with the nearest MPC meeting:</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,16 +890,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1993,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2023,7 +2020,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">TODAY()</f>
-        <v>45801</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2031,11 +2028,11 @@
         <v>33</v>
       </c>
       <c r="C2" s="32">
-        <f>DATEVALUE("23/05/2025")</f>
-        <v>45800</v>
+        <f>DATEVALUE("29/05/2025")</f>
+        <v>45806</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2112,13 +2109,13 @@
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="44">
-        <v>95.626999999999995</v>
+        <v>95.63</v>
       </c>
       <c r="D5" s="44">
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="E5" s="20">
-        <v>96.025000000000006</v>
+        <v>95.99</v>
       </c>
       <c r="F5" s="4">
         <v>96.224999999999994</v>
@@ -2130,12 +2127,6 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <f>100-4.21</f>
-        <v>95.79</v>
-      </c>
-    </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
@@ -2147,36 +2138,36 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <f>C5</f>
-        <v>95.626999999999995</v>
+        <v>95.63</v>
       </c>
       <c r="D9" s="4">
         <f>100-C9</f>
-        <v>4.3730000000000047</v>
+        <v>4.3700000000000045</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <f>D5</f>
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ref="D10:D11" si="0">100-C10</f>
-        <v>4.1700000000000017</v>
+        <v>4.1800000000000068</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -2188,15 +2179,15 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <f>E5</f>
-        <v>96.025000000000006</v>
+        <v>95.99</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>3.9749999999999943</v>
+        <v>4.0100000000000051</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2207,12 +2198,12 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="J13" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
+      <c r="J13" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
       <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>41</v>
@@ -2239,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="J14" s="70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14" s="71" t="s">
         <v>8</v>
@@ -2274,19 +2265,19 @@
       </c>
       <c r="E16" s="61">
         <f>(E17-(D18*E18))/D16</f>
-        <v>96.083750000000009</v>
+        <v>96.05749999999999</v>
       </c>
       <c r="F16" s="4">
         <f>100-E16</f>
-        <v>3.9162499999999909</v>
+        <v>3.9425000000000097</v>
       </c>
       <c r="G16" s="4">
         <f>F16-F18</f>
-        <v>-0.45675000000001376</v>
+        <v>-0.42749999999999488</v>
       </c>
       <c r="H16" s="38">
         <f>G16/25*100</f>
-        <v>-1.827000000000055</v>
+        <v>-1.7099999999999795</v>
       </c>
       <c r="I16" s="23">
         <f>ABS(TRUNC(H16,0))</f>
@@ -2303,15 +2294,15 @@
       </c>
       <c r="E17" s="20">
         <f>D5</f>
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ref="F17:F19" si="1">100-E17</f>
-        <v>4.1700000000000017</v>
+        <v>4.1800000000000068</v>
       </c>
       <c r="I17" s="24">
         <f>MOD(ABS(H16),1)</f>
-        <v>0.82700000000005502</v>
+        <v>0.70999999999997954</v>
       </c>
       <c r="J17" s="68">
         <f>IF(I16=0,1-I17,0)</f>
@@ -2319,11 +2310,11 @@
       </c>
       <c r="K17" s="69">
         <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
-        <v>0.17299999999994498</v>
+        <v>0.29000000000002046</v>
       </c>
       <c r="L17" s="69">
         <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
-        <v>0.82700000000005502</v>
+        <v>0.70999999999997954</v>
       </c>
       <c r="M17" s="69">
         <f>IF(K17 + L17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
@@ -2347,11 +2338,11 @@
       </c>
       <c r="E18" s="4">
         <f>E19</f>
-        <v>95.626999999999995</v>
+        <v>95.63</v>
       </c>
       <c r="F18" s="63">
         <f t="shared" si="1"/>
-        <v>4.3730000000000047</v>
+        <v>4.3700000000000045</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="67"/>
@@ -2368,11 +2359,11 @@
       </c>
       <c r="E19" s="20">
         <f>C9</f>
-        <v>95.626999999999995</v>
+        <v>95.63</v>
       </c>
       <c r="F19" s="63">
         <f t="shared" si="1"/>
-        <v>4.3730000000000047</v>
+        <v>4.3700000000000045</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="17"/>
@@ -2397,7 +2388,7 @@
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="P22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>27</v>
@@ -2448,15 +2439,15 @@
     </row>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4">
         <f>E5</f>
-        <v>96.025000000000006</v>
+        <v>95.99</v>
       </c>
       <c r="D27" s="4">
         <f>100-C27</f>
-        <v>3.9749999999999943</v>
+        <v>4.0100000000000051</v>
       </c>
       <c r="G27" s="33"/>
       <c r="P27" s="27">
@@ -2480,14 +2471,14 @@
     </row>
     <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
+        <v>62</v>
+      </c>
+      <c r="J29" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
       <c r="N29" s="73"/>
       <c r="P29" s="27">
         <v>45901</v>
@@ -2515,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>41</v>
@@ -2524,7 +2515,7 @@
         <v>42</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K30" s="71" t="s">
         <v>8</v>
@@ -2558,15 +2549,15 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="20">
         <f>C27</f>
-        <v>96.025000000000006</v>
+        <v>95.99</v>
       </c>
       <c r="F32" s="63">
         <f t="shared" ref="F32" si="2">100-E32</f>
-        <v>3.9749999999999943</v>
+        <v>4.0100000000000051</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="67"/>
@@ -2594,19 +2585,19 @@
       </c>
       <c r="E33" s="4">
         <f>E32</f>
-        <v>96.025000000000006</v>
+        <v>95.99</v>
       </c>
       <c r="F33" s="63">
         <f>100-E33</f>
-        <v>3.9749999999999943</v>
+        <v>4.0100000000000051</v>
       </c>
       <c r="G33" s="4">
         <f>F33-F35</f>
-        <v>-0.3510000000000133</v>
+        <v>-0.3060000000000116</v>
       </c>
       <c r="H33" s="38">
         <f>G33/25*100</f>
-        <v>-1.4040000000000532</v>
+        <v>-1.2240000000000464</v>
       </c>
       <c r="I33" s="23">
         <f>ABS(TRUNC(H33,0))</f>
@@ -2632,15 +2623,15 @@
       </c>
       <c r="E34" s="20">
         <f>D5</f>
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="F34" s="4">
         <f>100-E34</f>
-        <v>4.1700000000000017</v>
+        <v>4.1800000000000068</v>
       </c>
       <c r="I34" s="24">
         <f>MOD(ABS(H33),1)</f>
-        <v>0.40400000000005321</v>
+        <v>0.22400000000004638</v>
       </c>
       <c r="J34" s="68">
         <f>IF(I33=0,1-I34,0)</f>
@@ -2648,11 +2639,11 @@
       </c>
       <c r="K34" s="55">
         <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
-        <v>0.59599999999994679</v>
+        <v>0.77599999999995362</v>
       </c>
       <c r="L34" s="55">
         <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
-        <v>0.40400000000005321</v>
+        <v>0.22400000000004638</v>
       </c>
       <c r="M34" s="55">
         <f>IF(K34 + L34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
@@ -2686,11 +2677,11 @@
       </c>
       <c r="E35" s="62">
         <f>((E34)-(D33*E33))/D35</f>
-        <v>95.673999999999992</v>
+        <v>95.683999999999983</v>
       </c>
       <c r="F35" s="60">
         <f>100-E35</f>
-        <v>4.3260000000000076</v>
+        <v>4.3160000000000167</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -2726,7 +2717,7 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
@@ -2742,7 +2733,7 @@
         <v>45</v>
       </c>
       <c r="M41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
@@ -2752,17 +2743,17 @@
     </row>
     <row r="43" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O43" s="65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P43" s="65"/>
       <c r="Q43" s="65"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -2771,15 +2762,15 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="O44" s="64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P44" s="66">
         <f>K17</f>
-        <v>0.17299999999994498</v>
+        <v>0.29000000000002046</v>
       </c>
       <c r="Q44" s="66">
         <f>K34</f>
-        <v>0.59599999999994679</v>
+        <v>0.77599999999995362</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
@@ -2787,15 +2778,15 @@
         <v>7</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" s="66">
         <f>L34</f>
-        <v>0.40400000000005321</v>
+        <v>0.22400000000004638</v>
       </c>
       <c r="Q45" s="66">
         <f>L17</f>
-        <v>0.82700000000005502</v>
+        <v>0.70999999999997954</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
@@ -2811,7 +2802,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="O46" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P46" s="66">
         <f>M34</f>
@@ -2824,7 +2815,7 @@
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="26" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -2910,7 +2901,7 @@
     </row>
     <row r="53" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B53" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
@@ -2925,12 +2916,12 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2970,17 +2961,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2992,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F166E4D-0D17-48C2-B2CB-7100516C71BC}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3011,10 +3002,10 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">TODAY()</f>
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3040,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,7 +3063,7 @@
         <v>96.025000000000006</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3088,20 +3079,20 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <f>Model_example_using2anchor!C5</f>
-        <v>95.626999999999995</v>
+        <v>95.63</v>
       </c>
       <c r="D9" s="4">
         <f>100-C9</f>
-        <v>4.3730000000000047</v>
+        <v>4.3700000000000045</v>
       </c>
       <c r="E9">
         <v>4.21</v>
@@ -3109,33 +3100,33 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <f>Model_example_using2anchor!D5</f>
-        <v>95.83</v>
+        <v>95.82</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ref="D10:D12" si="0">100-C10</f>
-        <v>4.1700000000000017</v>
+        <v>4.1800000000000068</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <f>Model_example_using2anchor!E5</f>
-        <v>96.025000000000006</v>
+        <v>95.99</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>3.9749999999999943</v>
+        <v>4.0100000000000051</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>96.224999999999994</v>
@@ -3150,7 +3141,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -3160,13 +3151,13 @@
     </row>
     <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="67"/>
-      <c r="C17" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="83" t="s">
+      <c r="C17" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="76" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="77" t="s">
@@ -3176,37 +3167,37 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="58">
         <f>1-ABS(SUM(D18:F18))</f>
-        <v>0.21999999999997044</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="D18" s="58">
         <f>(D11-D10)/0.25</f>
-        <v>-0.78000000000002956</v>
+        <v>-0.68000000000000682</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="78"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="57">
         <f>1-ABS(SUM(D19:F19))</f>
-        <v>0.20000000000004547</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="D19" s="57">
         <f>(D12-D11)/0.25</f>
-        <v>-0.79999999999995453</v>
+        <v>-0.93999999999999773</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="80"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="84" t="s">
-        <v>81</v>
+      <c r="B22" s="81" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF3453-936E-4F44-933A-AE0DF7B70DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC80F5-C923-4CB3-8F17-E3162ABFD2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>8. We can start calculating the probability tree - start with the nearest MPC meeting:</t>
+  </si>
+  <si>
+    <t>Sources:</t>
   </si>
 </sst>
 </file>
@@ -1990,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2913,6 +2916,11 @@
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
+    </row>
+    <row r="54" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="45" t="s">

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC80F5-C923-4CB3-8F17-E3162ABFD2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC16E9-21DF-46CF-8EA3-DB3B52A5301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
     <sheet name="Note_using the next Q as anchor" sheetId="4" r:id="rId2"/>
-    <sheet name="CFA_Methodology" sheetId="5" r:id="rId3"/>
+    <sheet name="CFA_Methodology_not useful" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model_example_using2anchor!$O$44</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>Implied Rate</t>
   </si>
@@ -446,12 +446,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t xml:space="preserve">This implies 78% of 1 rate cut only in the next MPC meeting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we are willing to assume the next quarter future price to be proxy of the target range (which we shouldn't), then we can obtain the implied probability of rate hike/cut. However, that will be more of an expected target range by the market of where rate might be at the end of the current contract. </t>
-  </si>
-  <si>
     <t>6. Calculate the Quartly Change for the quarter with MPC meetings (Col. G).</t>
   </si>
   <si>
@@ -459,17 +453,123 @@
   </si>
   <si>
     <t>Sources:</t>
+  </si>
+  <si>
+    <t>Using Q2 as an Anchor month</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This implies </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of 1 rate cut only in the next</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MPC meetings and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of 1 rate cut in the next </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> meetings.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are willing to assume the current SONIA rate to be proxy of the target range (which we shouldn't), then we can obtain the implied probability of rate hike/cut. However, that will be more of an expected target range by the market of where rate might be at the end of the current contract. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;Quarter &quot;0"/>
+    <numFmt numFmtId="170" formatCode="0%;0%;0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +634,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -765,7 +874,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -900,6 +1009,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1993,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC657-1EA8-486E-9F46-909F319FC391}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2201,6 +2312,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J13" s="82" t="s">
         <v>63</v>
       </c>
@@ -2746,7 +2860,7 @@
     </row>
     <row r="43" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O43" s="65" t="s">
         <v>58</v>
@@ -2818,7 +2932,7 @@
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -2919,7 +3033,7 @@
     </row>
     <row r="54" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
@@ -2989,10 +3103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F166E4D-0D17-48C2-B2CB-7100516C71BC}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3021,8 +3135,8 @@
         <v>33</v>
       </c>
       <c r="C2" s="32">
-        <f>DATEVALUE("23/05/2025")</f>
-        <v>45800</v>
+        <f>DATEVALUE("29/05/2025")</f>
+        <v>45806</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3062,13 +3176,16 @@
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="44">
-        <v>95.626999999999995</v>
+        <f>Model_example_using2anchor!C5</f>
+        <v>95.63</v>
       </c>
       <c r="D5" s="44">
-        <v>95.83</v>
+        <f>Model_example_using2anchor!D5</f>
+        <v>95.82</v>
       </c>
       <c r="E5" s="20">
-        <v>96.025000000000006</v>
+        <f>Model_example_using2anchor!E5</f>
+        <v>95.99</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
@@ -3076,7 +3193,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3103,7 +3220,7 @@
         <v>4.3700000000000045</v>
       </c>
       <c r="E9">
-        <v>4.21</v>
+        <v>4.2119999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3178,35 +3295,50 @@
         <v>68</v>
       </c>
       <c r="C18" s="58">
-        <f>1-ABS(SUM(D18:F18))</f>
-        <v>0.31999999999999318</v>
-      </c>
-      <c r="D18" s="58">
-        <f>(D11-D10)/0.25</f>
-        <v>-0.68000000000000682</v>
-      </c>
-      <c r="E18" s="58"/>
+        <f>IF((D10 - E9)/0.25 &lt; 0, 1-(ABS(D18)),0)</f>
+        <v>0.87200000000002831</v>
+      </c>
+      <c r="D18" s="85">
+        <f>IF((D10 - E9)/0.25 &gt; 0, E18 - 1, (D10 - E9)/0.25)</f>
+        <v>-0.12799999999997169</v>
+      </c>
+      <c r="E18" s="58">
+        <f>IF((D10 - E9)/0.25 &gt; 0, MOD((D10 - E9)/0.25, 1), 0)</f>
+        <v>0</v>
+      </c>
       <c r="F18" s="78"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="57">
-        <f>1-ABS(SUM(D19:F19))</f>
-        <v>6.0000000000002274E-2</v>
-      </c>
-      <c r="D19" s="57">
-        <f>(D12-D11)/0.25</f>
-        <v>-0.93999999999999773</v>
-      </c>
-      <c r="E19" s="57"/>
+      <c r="C19" s="58">
+        <f>IF((D11 - E9)/0.25 &lt; 0, 1-(ABS(D19)),0)</f>
+        <v>0.19200000000002149</v>
+      </c>
+      <c r="D19" s="85">
+        <f>IF((D11 - E9)/0.25 &gt; 0, E19 - 1, (D11 - E9)/0.25)</f>
+        <v>-0.80799999999997851</v>
+      </c>
+      <c r="E19" s="58">
+        <f>IF((D11 - E9)/0.25 &gt; 0, MOD((D11 - E9)/0.25, 1), 0)</f>
+        <v>0</v>
+      </c>
       <c r="F19" s="80"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="81" t="s">
-        <v>78</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>IF((D10 - E9)/0.25 &gt; 0, E18 - 1, (D10 - E9)/0.25)</f>
+        <v>-0.12799999999997169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="84"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D18:D19">

--- a/BoEwatch-calculation-examples.xlsx
+++ b/BoEwatch-calculation-examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choiy\Documents\GitHub\Probability-of-BoE-Rate-Hike-or-Cut-Using-3-Month-SONIA-Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFC16E9-21DF-46CF-8EA3-DB3B52A5301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4929DE71-DB29-454F-A876-842E154FAFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31C5425F-BC13-4302-9BBD-3DD5E823DBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_example_using2anchor" sheetId="3" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="&quot;Quarter &quot;0"/>
-    <numFmt numFmtId="170" formatCode="0%;0%;0%"/>
+    <numFmt numFmtId="166" formatCode="0%;0%;0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1003,14 +1003,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">TODAY()</f>
-        <v>45806</v>
+        <v>45818</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -2142,8 +2142,8 @@
         <v>33</v>
       </c>
       <c r="C2" s="32">
-        <f>DATEVALUE("29/05/2025")</f>
-        <v>45806</v>
+        <f>DATEVALUE("10/06/2025")</f>
+        <v>45818</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>67</v>
@@ -2223,16 +2223,16 @@
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="44">
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="D5" s="44">
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
       <c r="E5" s="20">
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="F5" s="4">
-        <v>96.224999999999994</v>
+        <v>96.23</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2261,11 +2261,11 @@
       </c>
       <c r="C9" s="4">
         <f>C5</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="D9" s="4">
         <f>100-C9</f>
-        <v>4.3700000000000045</v>
+        <v>4.3730000000000047</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
@@ -2277,11 +2277,11 @@
       </c>
       <c r="C10" s="4">
         <f>D5</f>
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ref="D10:D11" si="0">100-C10</f>
-        <v>4.1800000000000068</v>
+        <v>4.1500000000000057</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="C11" s="4">
         <f>E5</f>
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>4.0100000000000051</v>
+        <v>3.9549999999999983</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -2315,12 +2315,12 @@
       <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
       <c r="N13" s="73"/>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
@@ -2382,23 +2382,23 @@
       </c>
       <c r="E16" s="61">
         <f>(E17-(D18*E18))/D16</f>
-        <v>96.05749999999999</v>
+        <v>96.128749999999997</v>
       </c>
       <c r="F16" s="4">
         <f>100-E16</f>
-        <v>3.9425000000000097</v>
+        <v>3.8712500000000034</v>
       </c>
       <c r="G16" s="4">
         <f>F16-F18</f>
-        <v>-0.42749999999999488</v>
+        <v>-0.50175000000000125</v>
       </c>
       <c r="H16" s="38">
         <f>G16/25*100</f>
-        <v>-1.7099999999999795</v>
+        <v>-2.007000000000005</v>
       </c>
       <c r="I16" s="23">
         <f>ABS(TRUNC(H16,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="67"/>
       <c r="L16" s="4"/>
@@ -2411,15 +2411,15 @@
       </c>
       <c r="E17" s="20">
         <f>D5</f>
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ref="F17:F19" si="1">100-E17</f>
-        <v>4.1800000000000068</v>
+        <v>4.1500000000000057</v>
       </c>
       <c r="I17" s="24">
         <f>MOD(ABS(H16),1)</f>
-        <v>0.70999999999997954</v>
+        <v>7.0000000000050022E-3</v>
       </c>
       <c r="J17" s="68">
         <f>IF(I16=0,1-I17,0)</f>
@@ -2427,15 +2427,15 @@
       </c>
       <c r="K17" s="69">
         <f>IF(I16=0,I17,IF(I16=1,1-I17,0))</f>
-        <v>0.29000000000002046</v>
+        <v>0</v>
       </c>
       <c r="L17" s="69">
         <f>IF(I16=0,I17-I17,IF(I16=1,I17,IF(I16=2,1-I17,0)))</f>
-        <v>0.70999999999997954</v>
+        <v>0.992999999999995</v>
       </c>
       <c r="M17" s="69">
         <f>IF(K17 + L17 = 1, 0, IF(I16 = 0, 0, IF(I16 = 1, I17, IF(I16 = 2, I17, IF(I16 = 3, 1 - I17, 0)))))</f>
-        <v>0</v>
+        <v>7.0000000000050022E-3</v>
       </c>
       <c r="N17" s="56">
         <v>0</v>
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E18" s="4">
         <f>E19</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="F18" s="63">
         <f t="shared" si="1"/>
-        <v>4.3700000000000045</v>
+        <v>4.3730000000000047</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="67"/>
@@ -2476,11 +2476,11 @@
       </c>
       <c r="E19" s="20">
         <f>C9</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="F19" s="63">
         <f t="shared" si="1"/>
-        <v>4.3700000000000045</v>
+        <v>4.3730000000000047</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="17"/>
@@ -2560,11 +2560,11 @@
       </c>
       <c r="C27" s="4">
         <f>E5</f>
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="D27" s="4">
         <f>100-C27</f>
-        <v>4.0100000000000051</v>
+        <v>3.9549999999999983</v>
       </c>
       <c r="G27" s="33"/>
       <c r="P27" s="27">
@@ -2590,12 +2590,12 @@
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="82" t="s">
+      <c r="J29" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="73"/>
       <c r="P29" s="27">
         <v>45901</v>
@@ -2670,11 +2670,11 @@
       </c>
       <c r="E32" s="20">
         <f>C27</f>
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="F32" s="63">
         <f t="shared" ref="F32" si="2">100-E32</f>
-        <v>4.0100000000000051</v>
+        <v>3.9549999999999983</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="67"/>
@@ -2702,19 +2702,19 @@
       </c>
       <c r="E33" s="4">
         <f>E32</f>
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="F33" s="63">
         <f>100-E33</f>
-        <v>4.0100000000000051</v>
+        <v>3.9549999999999983</v>
       </c>
       <c r="G33" s="4">
         <f>F33-F35</f>
-        <v>-0.3060000000000116</v>
+        <v>-0.3510000000000133</v>
       </c>
       <c r="H33" s="38">
         <f>G33/25*100</f>
-        <v>-1.2240000000000464</v>
+        <v>-1.4040000000000532</v>
       </c>
       <c r="I33" s="23">
         <f>ABS(TRUNC(H33,0))</f>
@@ -2740,15 +2740,15 @@
       </c>
       <c r="E34" s="20">
         <f>D5</f>
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
       <c r="F34" s="4">
         <f>100-E34</f>
-        <v>4.1800000000000068</v>
+        <v>4.1500000000000057</v>
       </c>
       <c r="I34" s="24">
         <f>MOD(ABS(H33),1)</f>
-        <v>0.22400000000004638</v>
+        <v>0.40400000000005321</v>
       </c>
       <c r="J34" s="68">
         <f>IF(I33=0,1-I34,0)</f>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="K34" s="55">
         <f>IF(I33=0,I34,IF(I33=1,1-I34,0))</f>
-        <v>0.77599999999995362</v>
+        <v>0.59599999999994679</v>
       </c>
       <c r="L34" s="55">
         <f>IF(I33=0,I34-I34,IF(I33=1,I34,IF(I33=2,1-I34,0)))</f>
-        <v>0.22400000000004638</v>
+        <v>0.40400000000005321</v>
       </c>
       <c r="M34" s="55">
         <f>IF(K34 + L34 = 1, 0, IF(I33 = 0, I34, IF(I33 = 1, I34, IF(I33 = 2, I34, IF(I33 = 3, 1 - I34, 0)))))</f>
@@ -2794,11 +2794,11 @@
       </c>
       <c r="E35" s="62">
         <f>((E34)-(D33*E33))/D35</f>
-        <v>95.683999999999983</v>
+        <v>95.693999999999988</v>
       </c>
       <c r="F35" s="60">
         <f>100-E35</f>
-        <v>4.3160000000000167</v>
+        <v>4.3060000000000116</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -2883,11 +2883,11 @@
       </c>
       <c r="P44" s="66">
         <f>K17</f>
-        <v>0.29000000000002046</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="66">
         <f>K34</f>
-        <v>0.77599999999995362</v>
+        <v>0.59599999999994679</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
@@ -2899,11 +2899,11 @@
       </c>
       <c r="P45" s="66">
         <f>L34</f>
-        <v>0.22400000000004638</v>
+        <v>0.40400000000005321</v>
       </c>
       <c r="Q45" s="66">
         <f>L17</f>
-        <v>0.70999999999997954</v>
+        <v>0.992999999999995</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="Q46" s="66">
         <f>M17</f>
-        <v>0</v>
+        <v>7.0000000000050022E-3</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="C1" s="32">
         <f ca="1">TODAY()</f>
-        <v>45806</v>
+        <v>45818</v>
       </c>
       <c r="G1" t="s">
         <v>72</v>
@@ -3135,8 +3135,8 @@
         <v>33</v>
       </c>
       <c r="C2" s="32">
-        <f>DATEVALUE("29/05/2025")</f>
-        <v>45806</v>
+        <f ca="1">C1</f>
+        <v>45818</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3177,15 +3177,15 @@
       <c r="B5" s="4"/>
       <c r="C5" s="44">
         <f>Model_example_using2anchor!C5</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="D5" s="44">
         <f>Model_example_using2anchor!D5</f>
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
       <c r="E5" s="20">
         <f>Model_example_using2anchor!E5</f>
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
@@ -3213,11 +3213,11 @@
       </c>
       <c r="C9" s="4">
         <f>Model_example_using2anchor!C5</f>
-        <v>95.63</v>
+        <v>95.626999999999995</v>
       </c>
       <c r="D9" s="4">
         <f>100-C9</f>
-        <v>4.3700000000000045</v>
+        <v>4.3730000000000047</v>
       </c>
       <c r="E9">
         <v>4.2119999999999997</v>
@@ -3229,11 +3229,11 @@
       </c>
       <c r="C10" s="4">
         <f>Model_example_using2anchor!D5</f>
-        <v>95.82</v>
+        <v>95.85</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ref="D10:D12" si="0">100-C10</f>
-        <v>4.1800000000000068</v>
+        <v>4.1500000000000057</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3242,11 +3242,11 @@
       </c>
       <c r="C11" s="4">
         <f>Model_example_using2anchor!E5</f>
-        <v>95.99</v>
+        <v>96.045000000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>4.0100000000000051</v>
+        <v>3.9549999999999983</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,11 +3296,11 @@
       </c>
       <c r="C18" s="58">
         <f>IF((D10 - E9)/0.25 &lt; 0, 1-(ABS(D18)),0)</f>
-        <v>0.87200000000002831</v>
-      </c>
-      <c r="D18" s="85">
+        <v>0.75200000000002376</v>
+      </c>
+      <c r="D18" s="83">
         <f>IF((D10 - E9)/0.25 &gt; 0, E18 - 1, (D10 - E9)/0.25)</f>
-        <v>-0.12799999999997169</v>
+        <v>-0.24799999999997624</v>
       </c>
       <c r="E18" s="58">
         <f>IF((D10 - E9)/0.25 &gt; 0, MOD((D10 - E9)/0.25, 1), 0)</f>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="C19" s="58">
         <f>IF((D11 - E9)/0.25 &lt; 0, 1-(ABS(D19)),0)</f>
-        <v>0.19200000000002149</v>
-      </c>
-      <c r="D19" s="85">
+        <v>-2.8000000000005798E-2</v>
+      </c>
+      <c r="D19" s="83">
         <f>IF((D11 - E9)/0.25 &gt; 0, E19 - 1, (D11 - E9)/0.25)</f>
-        <v>-0.80799999999997851</v>
+        <v>-1.0280000000000058</v>
       </c>
       <c r="E19" s="58">
         <f>IF((D11 - E9)/0.25 &gt; 0, MOD((D11 - E9)/0.25, 1), 0)</f>
@@ -3334,11 +3334,11 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E25">
         <f>IF((D10 - E9)/0.25 &gt; 0, E18 - 1, (D10 - E9)/0.25)</f>
-        <v>-0.12799999999997169</v>
+        <v>-0.24799999999997624</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E28" s="84"/>
+      <c r="E28" s="82"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D18:D19">
